--- a/data/processed/state_overviews/connecticut_overview.xlsx
+++ b/data/processed/state_overviews/connecticut_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1561</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,561</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Capitol Planning Region</t>
         </is>
       </c>
-      <c r="B2">
-        <v>420</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Greater Bridgeport Planning Region</t>
         </is>
       </c>
-      <c r="B3">
-        <v>109</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Lower Connecticut River Valley Planning Region</t>
         </is>
       </c>
-      <c r="B4">
-        <v>90</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Naugatuck Valley Planning Region</t>
         </is>
       </c>
-      <c r="B5">
-        <v>111</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Northeastern Connecticut Planning Region</t>
         </is>
       </c>
-      <c r="B6">
-        <v>21</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Northwest Hills Planning Region</t>
         </is>
       </c>
-      <c r="B7">
-        <v>91</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>South Central Connecticut Planning Region</t>
         </is>
       </c>
-      <c r="B8">
-        <v>280</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Southeastern Connecticut Planning Region</t>
         </is>
       </c>
-      <c r="B9">
-        <v>135</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Western Connecticut Planning Region</t>
         </is>
       </c>
-      <c r="B10">
-        <v>304</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -725,6 +745,38 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>65.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$3,847,910,957</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-16.67%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>71.11%</t>
         </is>
       </c>
     </row>
@@ -779,8 +831,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>359</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -809,8 +863,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>264</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,8 +895,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>304</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -869,8 +927,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>339</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -899,8 +959,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>295</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -929,8 +991,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1561</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,561</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1004,8 +1068,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>436</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1034,8 +1100,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>446</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1064,8 +1132,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>274</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1094,8 +1164,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>124</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1124,8 +1196,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>195</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,8 +1228,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>86</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1184,8 +1260,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1561</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,561</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>176</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>206</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1319,8 +1401,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>53</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1349,8 +1433,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>149</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1409,8 +1497,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>456</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1439,8 +1529,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>14</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1469,8 +1561,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,8 +1593,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>110</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>16</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>365</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>14</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1561</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,561</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/connecticut_overview.xlsx
+++ b/data/processed/state_overviews/connecticut_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,352 +431,384 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Capitol Planning Region</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$817,859,443</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-18.14%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Greater Bridgeport Planning Region</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>1,561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$679,965,531</t>
+          <t>$3,847,910,957</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.37%</t>
+          <t>-16.67%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.98%</t>
+          <t>71.11%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lower Connecticut River Valley Planning Region</t>
+          <t>Capitol Planning Region</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>420</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$192,250,657</t>
+          <t>$817,859,443</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.26%</t>
+          <t>-18.14%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.44%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Naugatuck Valley Planning Region</t>
+          <t>Greater Bridgeport Planning Region</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$177,668,643</t>
+          <t>$679,965,531</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.11%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-25.08%</t>
+          <t>-17.37%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.18%</t>
+          <t>77.98%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Northeastern Connecticut Planning Region</t>
+          <t>Lower Connecticut River Valley Planning Region</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$54,730,137</t>
+          <t>$192,250,657</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-23.30%</t>
+          <t>-11.26%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.48%</t>
+          <t>64.44%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Northwest Hills Planning Region</t>
+          <t>Naugatuck Valley Planning Region</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$56,641,434</t>
+          <t>$177,668,643</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.73%</t>
+          <t>4.11%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.62%</t>
+          <t>-25.08%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>56.04%</t>
+          <t>80.18%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>South Central Connecticut Planning Region</t>
+          <t>Northeastern Connecticut Planning Region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,293,798,622</t>
+          <t>$54,730,137</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.70%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-21.14%</t>
+          <t>-23.30%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70.71%</t>
+          <t>90.48%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Southeastern Connecticut Planning Region</t>
+          <t>Northwest Hills Planning Region</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$269,424,945</t>
+          <t>$56,641,434</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>15.73%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-27.96%</t>
+          <t>-7.62%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71.85%</t>
+          <t>56.04%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Western Connecticut Planning Region</t>
+          <t>South Central Connecticut Planning Region</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>280</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$305,571,545</t>
+          <t>$1,293,798,622</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>7.70%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9.43%</t>
+          <t>-21.14%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.13%</t>
+          <t>70.71%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Southeastern Connecticut Planning Region</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,561</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$3,847,910,957</t>
+          <t>$269,424,945</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-16.67%</t>
+          <t>-27.96%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.11%</t>
+          <t>71.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Western Connecticut Planning Region</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$305,571,545</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-9.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>65.13%</t>
         </is>
       </c>
     </row>
@@ -787,7 +819,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -796,224 +828,256 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$772,229,043</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-22.45%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>77.72%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1,561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$384,417,477</t>
+          <t>$3,847,910,957</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.97%</t>
+          <t>-16.67%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.45%</t>
+          <t>71.11%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>359</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,360,867,135</t>
+          <t>$772,229,043</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-21.24%</t>
+          <t>-22.45%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.71%</t>
+          <t>77.72%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$903,730,046</t>
+          <t>$384,417,477</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.50%</t>
+          <t>-17.97%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.08%</t>
+          <t>70.45%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$426,667,256</t>
+          <t>$1,360,867,135</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.61%</t>
+          <t>-21.24%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.81%</t>
+          <t>71.71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,561</t>
+          <t>339</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$3,847,910,957</t>
+          <t>$903,730,046</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-16.67%</t>
+          <t>-9.50%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>71.11%</t>
+          <t>66.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5th Congressional district</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$426,667,256</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.14%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-15.61%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>68.81%</t>
         </is>
       </c>
     </row>
@@ -1038,34 +1102,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1097,128 +1161,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$450,638,583</t>
+          <t>$2,884,626,991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.09%</t>
+          <t>-14.95%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.09%</t>
+          <t>75.90%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>446</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$68,331,801</t>
+          <t>$450,638,583</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.64%</t>
+          <t>-20.09%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.44%</t>
+          <t>73.09%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$387,602,872</t>
+          <t>$68,331,801</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-27.91%</t>
+          <t>-14.64%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84.68%</t>
+          <t>70.44%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,884,626,991</t>
+          <t>$387,602,872</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.95%</t>
+          <t>-27.91%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.90%</t>
+          <t>84.68%</t>
         </is>
       </c>
     </row>
@@ -1307,34 +1371,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1366,7 +1430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1398,7 +1462,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1430,7 +1494,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1494,7 +1558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1526,7 +1590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1558,160 +1622,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$3,500</t>
+          <t>$164,412,206</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>4.85%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>-17.97%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>69.09%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$164,412,206</t>
+          <t>$12,555,893</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-17.97%</t>
+          <t>-2.12%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69.09%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$12,555,893</t>
+          <t>$3,500</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.40%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-2.12%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$714,096,195</t>
+          <t>$842,874,776</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-17.29%</t>
+          <t>-0.06%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75.89%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>365</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$842,874,776</t>
+          <t>$714,096,195</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-17.29%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.89%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/connecticut_overview.xlsx
+++ b/data/processed/state_overviews/connecticut_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>71.11%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,561</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$3,847,910,957</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-16.67%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.11%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>71.11%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,561</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,847,910,957</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.67%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>71.11%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>420</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$817,859,443</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.08%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-18.14%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>77.98%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$679,965,531</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.59%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>77.98%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>64.44%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$192,250,657</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.48%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-11.26%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>64.44%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80.18%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$177,668,643</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>4.11%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-25.08%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>80.18%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>90.48%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$54,730,137</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.60%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-23.30%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>90.48%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>56.04%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$56,641,434</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15.73%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-7.62%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>56.04%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>70.71%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,293,798,622</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>7.70%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-21.14%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>70.71%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>71.85%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$269,424,945</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>5.90%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-27.96%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>71.85%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>65.13%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>304</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$305,571,545</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>8.59%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-9.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>65.13%</t>
         </is>
       </c>
     </row>
@@ -833,27 +833,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -865,27 +865,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -897,187 +897,187 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>71.11%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,561</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,847,910,957</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.67%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>71.11%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>77.72%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>359</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$772,229,043</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.89%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-22.45%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>77.72%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>70.45%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>264</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$384,417,477</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.85%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>70.45%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.71%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>304</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$1,360,867,135</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.16%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-21.24%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>71.71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>66.08%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>339</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$903,730,046</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.44%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-9.50%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66.08%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>68.81%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>295</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$426,667,256</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.14%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-15.61%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>68.81%</t>
         </is>
       </c>
     </row>
@@ -1102,187 +1102,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>436</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$48,112,369</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.57%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-15.13%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.12%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>73.09%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,884,626,991</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>$450,638,583</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.95%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.90%</t>
+          <t>-20.09%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>70.44%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$450,638,583</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>$68,331,801</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-20.09%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.09%</t>
+          <t>-14.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>84.68%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$68,331,801</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>$387,602,872</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.64%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.44%</t>
+          <t>-27.91%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>75.90%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$387,602,872</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>$2,884,626,991</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-27.91%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84.68%</t>
+          <t>-14.95%</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>47.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,598,341</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>30.90%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>47.67%</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>71.11%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,561</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$3,847,910,957</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.11%</t>
         </is>
       </c>
     </row>
@@ -1371,155 +1371,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.36%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>176</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$132,623,384</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.48%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-6.68%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.36%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.99%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>206</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$247,896,518</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.88%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.99%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>47.17%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$44,292,609</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>24.11%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.61%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>47.17%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>74.50%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>149</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$421,841,035</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4.25%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-22.88%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>74.50%</t>
         </is>
       </c>
     </row>
@@ -1531,251 +1531,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$2,756,833</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.67%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.06%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.32%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>456</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$848,537,281</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.69%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-28.40%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.32%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$416,020,727</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.58%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-4.98%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$164,412,206</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>$3,500</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-17.97%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69.09%</t>
+          <t>14.71%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>69.09%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$12,555,893</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.40%</t>
+          <t>$164,412,206</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-2.12%</t>
+          <t>4.85%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>-17.97%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68.75%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$3,500</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>$12,555,893</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.12%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>75.89%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$842,874,776</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>$714,096,195</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-17.29%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$714,096,195</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>$842,874,776</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-17.29%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75.89%</t>
+          <t>-0.06%</t>
         </is>
       </c>
     </row>
@@ -1787,27 +1787,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>71.11%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1,561</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$3,847,910,957</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-16.67%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>71.11%</t>
         </is>
       </c>
     </row>
